--- a/日程表.xlsx
+++ b/日程表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Sandisk/XDF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuzeqi/Documents/GitHub/xdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>时间</t>
   </si>
@@ -102,13 +102,28 @@
   </si>
   <si>
     <t>群里日常问候/私信问题</t>
+  </si>
+  <si>
+    <t>11月12号</t>
+  </si>
+  <si>
+    <t>约定见面但是迟到后取消</t>
+  </si>
+  <si>
+    <t>第二次深度探访报告（已交)。 希望钟琪能加强学习和参与补习班</t>
+  </si>
+  <si>
+    <t>12月18号 - 1月29号</t>
+  </si>
+  <si>
+    <t>回国</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,8 +136,13 @@
       <color theme="1"/>
       <name val="PingFang SC Regular"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC Regular"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +161,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CD0C6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDC692"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -165,21 +203,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,144 +568,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
